--- a/Practica4/BurndownChart.xlsx
+++ b/Practica4/BurndownChart.xlsx
@@ -360,18 +360,18 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="34161361"/>
-        <c:axId val="60466733"/>
+        <c:axId val="30329507"/>
+        <c:axId val="66440580"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="34161361"/>
+        <c:axId val="30329507"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -413,12 +413,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60466733"/>
+        <c:crossAx val="66440580"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60466733"/>
+        <c:axId val="66440580"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -460,7 +460,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34161361"/>
+        <c:crossAx val="30329507"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -495,13 +495,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>9360</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -509,8 +509,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4464360" y="204840"/>
-        <a:ext cx="5619600" cy="2742840"/>
+        <a:off x="4465080" y="205200"/>
+        <a:ext cx="5619240" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -531,7 +531,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -593,8 +593,11 @@
       <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
